--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vtn-Itgav.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vtn-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H2">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I2">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J2">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N2">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q2">
-        <v>27.85788391449309</v>
+        <v>42.65422447916712</v>
       </c>
       <c r="R2">
-        <v>27.85788391449309</v>
+        <v>383.8880203125041</v>
       </c>
       <c r="S2">
-        <v>0.002294853854508618</v>
+        <v>0.003256400933895297</v>
       </c>
       <c r="T2">
-        <v>0.002294853854508618</v>
+        <v>0.003256400933895297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H3">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I3">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J3">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N3">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q3">
-        <v>58.08064289848182</v>
+        <v>72.41222893236923</v>
       </c>
       <c r="R3">
-        <v>58.08064289848182</v>
+        <v>651.7100603913231</v>
       </c>
       <c r="S3">
-        <v>0.004784519442935045</v>
+        <v>0.005528250784068917</v>
       </c>
       <c r="T3">
-        <v>0.004784519442935045</v>
+        <v>0.005528250784068917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H4">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I4">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J4">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N4">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q4">
-        <v>24.92485398758007</v>
+        <v>31.14805064026556</v>
       </c>
       <c r="R4">
-        <v>24.92485398758007</v>
+        <v>280.33245576239</v>
       </c>
       <c r="S4">
-        <v>0.002053239126921081</v>
+        <v>0.0023779717585422</v>
       </c>
       <c r="T4">
-        <v>0.002053239126921081</v>
+        <v>0.0023779717585422</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H5">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I5">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J5">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N5">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q5">
-        <v>429.3756463362801</v>
+        <v>530.4508181024054</v>
       </c>
       <c r="R5">
-        <v>429.3756463362801</v>
+        <v>4774.057362921649</v>
       </c>
       <c r="S5">
-        <v>0.03537075393276048</v>
+        <v>0.04049682207439647</v>
       </c>
       <c r="T5">
-        <v>0.03537075393276048</v>
+        <v>0.04049682207439647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H6">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I6">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J6">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N6">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q6">
-        <v>895.201288823954</v>
+        <v>900.5233724634808</v>
       </c>
       <c r="R6">
-        <v>895.201288823954</v>
+        <v>8104.710352171327</v>
       </c>
       <c r="S6">
-        <v>0.07374415567687655</v>
+        <v>0.06874970033781475</v>
       </c>
       <c r="T6">
-        <v>0.07374415567687655</v>
+        <v>0.06874970033781473</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H7">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I7">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J7">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N7">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q7">
-        <v>384.1686369145509</v>
+        <v>387.3592626796867</v>
       </c>
       <c r="R7">
-        <v>384.1686369145509</v>
+        <v>3486.23336411718</v>
       </c>
       <c r="S7">
-        <v>0.03164672808281823</v>
+        <v>0.02957261748737709</v>
       </c>
       <c r="T7">
-        <v>0.03164672808281823</v>
+        <v>0.02957261748737709</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>151.768741529568</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H8">
-        <v>151.768741529568</v>
+        <v>461.823868</v>
       </c>
       <c r="I8">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239053</v>
       </c>
       <c r="J8">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239052</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N8">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q8">
-        <v>2593.140516081414</v>
+        <v>3248.059808937426</v>
       </c>
       <c r="R8">
-        <v>2593.140516081414</v>
+        <v>29232.53828043683</v>
       </c>
       <c r="S8">
-        <v>0.2136155971816635</v>
+        <v>0.247970397406652</v>
       </c>
       <c r="T8">
-        <v>0.2136155971816635</v>
+        <v>0.247970397406652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>151.768741529568</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H9">
-        <v>151.768741529568</v>
+        <v>461.823868</v>
       </c>
       <c r="I9">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239053</v>
       </c>
       <c r="J9">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239052</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N9">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q9">
-        <v>5406.41452747794</v>
+        <v>5514.090417601632</v>
       </c>
       <c r="R9">
-        <v>5406.41452747794</v>
+        <v>49626.81375841469</v>
       </c>
       <c r="S9">
-        <v>0.4453651704320378</v>
+        <v>0.4209686005246925</v>
       </c>
       <c r="T9">
-        <v>0.4453651704320378</v>
+        <v>0.4209686005246925</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>151.768741529568</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H10">
-        <v>151.768741529568</v>
+        <v>461.823868</v>
       </c>
       <c r="I10">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239053</v>
       </c>
       <c r="J10">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239052</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N10">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q10">
-        <v>2320.120542213243</v>
+        <v>2371.880690523569</v>
       </c>
       <c r="R10">
-        <v>2320.120542213243</v>
+        <v>21346.92621471212</v>
       </c>
       <c r="S10">
-        <v>0.1911249822694786</v>
+        <v>0.1810792386925608</v>
       </c>
       <c r="T10">
-        <v>0.1911249822694786</v>
+        <v>0.1810792386925608</v>
       </c>
     </row>
   </sheetData>
